--- a/2019/2019W17-0422/NBAStadiums.xlsx
+++ b/2019/2019W17-0422/NBAStadiums.xlsx
@@ -1025,8 +1025,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB99A843FEA6A4DB1D729FDF0A09D2A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a716f9c47751248f3ce32f3c65dfede">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65db1ef9-6540-47d7-a852-bae454952b90" xmlns:ns3="971ae857-6480-444e-9afc-50767a43cd0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="feb9b0e84857ef69e86a3f3a6b7c4f29" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB99A843FEA6A4DB1D729FDF0A09D2A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a3a455fb8f85dca39343af24f7f12940">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65db1ef9-6540-47d7-a852-bae454952b90" xmlns:ns3="971ae857-6480-444e-9afc-50767a43cd0c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cffb22d3c178a275fb4580b15006340e" ns2:_="" ns3:_="">
     <xsd:import namespace="65db1ef9-6540-47d7-a852-bae454952b90"/>
     <xsd:import namespace="971ae857-6480-444e-9afc-50767a43cd0c"/>
     <xsd:element name="properties">
@@ -1245,20 +1245,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF50A91C-3C34-4620-932A-B3F451DCAC1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65db1ef9-6540-47d7-a852-bae454952b90"/>
-    <ds:schemaRef ds:uri="971ae857-6480-444e-9afc-50767a43cd0c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626F1D1B-415C-46FA-A0E1-62FD324FF743}"/>
 </file>